--- a/Analyzer Results/RESULTS_TT_MERGED_EXP.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED_EXP.xlsx
@@ -511,16 +511,16 @@
         <v>17.23809523809524</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05486445201202842</v>
+        <v>65.45238095238095</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06100378502536338</v>
+        <v>17.52119047619048</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8203915154934895</v>
+        <v>167.8352380952381</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09120276888572172</v>
+        <v>7147.117142857142</v>
       </c>
     </row>
     <row r="3">
@@ -549,16 +549,16 @@
         <v>23.85714285714286</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1789273955048444</v>
+        <v>90.5</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2134221473828027</v>
+        <v>24.57071428571428</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8984773565746854</v>
+        <v>186.4028571428571</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2775992628670891</v>
+        <v>9895.018571428573</v>
       </c>
     </row>
     <row r="4">
@@ -587,16 +587,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2206473447757062</v>
+        <v>96.78571428571429</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3417053647354091</v>
+        <v>28.86642857142857</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9303364086454284</v>
+        <v>197.6928571428571</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5283503538079818</v>
+        <v>12880.15142857143</v>
       </c>
     </row>
     <row r="5">
@@ -625,16 +625,16 @@
         <v>19.55555555555556</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06392520878271973</v>
+        <v>68</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05516916455172307</v>
+        <v>17.10777777777778</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4920654976148455</v>
+        <v>124.8822222222222</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05062636747767391</v>
+        <v>6191.664444444445</v>
       </c>
     </row>
     <row r="6">
@@ -663,16 +663,16 @@
         <v>22</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4982623562366052</v>
+        <v>133.7222222222222</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4882738043174749</v>
+        <v>33.53666666666666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5256133323713028</v>
+        <v>128.4011111111111</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5406156926438965</v>
+        <v>13032.63444444444</v>
       </c>
     </row>
     <row r="7">
@@ -701,16 +701,16 @@
         <v>19.75</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3268954402811068</v>
+        <v>111.3125</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3999149511461499</v>
+        <v>30.713125</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7441133224827683</v>
+        <v>155.031875</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5496139255637427</v>
+        <v>13145.564375</v>
       </c>
     </row>
     <row r="8">
@@ -739,16 +739,16 @@
         <v>17.57142857142857</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5056273599176597</v>
+        <v>134.7142857142857</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6234672114875518</v>
+        <v>38.19928571428571</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7859469503920706</v>
+        <v>161.6435714285714</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7655678290693375</v>
+        <v>16368.36285714286</v>
       </c>
     </row>
     <row r="9">
@@ -777,16 +777,16 @@
         <v>24.5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9811900705911107</v>
+        <v>278.625</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9764762054157075</v>
+        <v>66.910625</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4236974144068848</v>
+        <v>117.86875</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9719121195851661</v>
+        <v>24165.876875</v>
       </c>
     </row>
     <row r="10">
@@ -815,16 +815,16 @@
         <v>22.875</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8277264754073337</v>
+        <v>191.3125</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8893647945263276</v>
+        <v>52.52125</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7395794742159902</v>
+        <v>154.361875</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9160477794353333</v>
+        <v>20433.32125</v>
       </c>
     </row>
     <row r="11">
@@ -853,16 +853,16 @@
         <v>22.375</v>
       </c>
       <c r="G11" t="n">
-        <v>0.710211771777906</v>
+        <v>165.9375</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7427809580322529</v>
+        <v>43.170625</v>
       </c>
       <c r="I11" t="n">
-        <v>0.493655850909342</v>
+        <v>125.0475</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7153678439694515</v>
+        <v>15489.34625</v>
       </c>
     </row>
     <row r="12">
@@ -891,16 +891,16 @@
         <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>0.95761677863499</v>
+        <v>249</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9420707076249902</v>
+        <v>58.83428571428572</v>
       </c>
       <c r="I12" t="n">
-        <v>0.128465419991123</v>
+        <v>84.25142857142858</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8511484589820966</v>
+        <v>18264.09428571429</v>
       </c>
     </row>
     <row r="13">
@@ -929,16 +929,16 @@
         <v>22.125</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8533055296098264</v>
+        <v>198.5625</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8849572482388132</v>
+        <v>52.12125</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4991304137990354</v>
+        <v>125.6175</v>
       </c>
       <c r="J13" t="n">
-        <v>0.879892303975795</v>
+        <v>19100.43375</v>
       </c>
     </row>
     <row r="14">
@@ -967,16 +967,16 @@
         <v>22.875</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2905930359018283</v>
+        <v>106.5</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2825414401428911</v>
+        <v>26.948125</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4616731334752345</v>
+        <v>121.74625</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2624889353636458</v>
+        <v>9708.01125</v>
       </c>
     </row>
     <row r="15">
@@ -1005,16 +1005,16 @@
         <v>11.75</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5145024510088583</v>
+        <v>135.9166666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2915611116054961</v>
+        <v>27.24541666666667</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03192455931962577</v>
+        <v>63.51666666666667</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1251251572989059</v>
+        <v>7768.971666666666</v>
       </c>
     </row>
     <row r="16">
@@ -1043,16 +1043,16 @@
         <v>19.4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6119058254132412</v>
+        <v>149.8</v>
       </c>
       <c r="H16" t="n">
-        <v>0.326610552857733</v>
+        <v>28.383</v>
       </c>
       <c r="I16" t="n">
-        <v>0.005074011908047207</v>
+        <v>46.726</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1308915263289834</v>
+        <v>7865.425999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1081,16 +1081,16 @@
         <v>18.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1148755667298615</v>
+        <v>79.4375</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1233316996104836</v>
+        <v>20.95125</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7143031438867682</v>
+        <v>150.763125</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1607280727536116</v>
+        <v>8334.363125</v>
       </c>
     </row>
     <row r="18">
@@ -1119,16 +1119,16 @@
         <v>19.66666666666667</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5755571554165313</v>
+        <v>144.4444444444445</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6437759489763002</v>
+        <v>38.96777777777778</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4976299745814534</v>
+        <v>125.4611111111111</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7049134158282259</v>
+        <v>15320.04833333333</v>
       </c>
     </row>
     <row r="19">
@@ -1157,16 +1157,16 @@
         <v>22.22222222222222</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5449757368009966</v>
+        <v>140.1111111111111</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5077997048393531</v>
+        <v>34.17555555555555</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3286291948335202</v>
+        <v>108.1377777777778</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4268010119677608</v>
+        <v>11662.68888888889</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_TT_MERGED_EXP.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED_EXP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,32 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>RMS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>tau</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
         </is>
       </c>
     </row>
@@ -514,13 +529,22 @@
         <v>65.45238095238095</v>
       </c>
       <c r="H2" t="n">
-        <v>17.52119047619048</v>
+        <v>65.84714285714286</v>
       </c>
       <c r="I2" t="n">
+        <v>59.14857142857142</v>
+      </c>
+      <c r="J2" t="n">
+        <v>26.41642857142858</v>
+      </c>
+      <c r="K2" t="n">
         <v>167.8352380952381</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>7147.117142857142</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4.249999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -552,13 +576,22 @@
         <v>90.5</v>
       </c>
       <c r="H3" t="n">
-        <v>24.57071428571428</v>
+        <v>88.36357142857142</v>
       </c>
       <c r="I3" t="n">
+        <v>79.76571428571428</v>
+      </c>
+      <c r="J3" t="n">
+        <v>36.84857142857143</v>
+      </c>
+      <c r="K3" t="n">
         <v>186.4028571428571</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>9895.018571428573</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8.156666666666668</v>
       </c>
     </row>
     <row r="4">
@@ -590,13 +623,22 @@
         <v>96.78571428571429</v>
       </c>
       <c r="H4" t="n">
-        <v>28.86642857142857</v>
+        <v>96.86857142857141</v>
       </c>
       <c r="I4" t="n">
+        <v>88.48571428571428</v>
+      </c>
+      <c r="J4" t="n">
+        <v>41.85428571428572</v>
+      </c>
+      <c r="K4" t="n">
         <v>197.6928571428571</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>12880.15142857143</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9183333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -628,13 +670,22 @@
         <v>68</v>
       </c>
       <c r="H5" t="n">
-        <v>17.10777777777778</v>
+        <v>68.41</v>
       </c>
       <c r="I5" t="n">
+        <v>60.47555555555555</v>
+      </c>
+      <c r="J5" t="n">
+        <v>26.31666666666667</v>
+      </c>
+      <c r="K5" t="n">
         <v>124.8822222222222</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>6191.664444444445</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.445555555555555</v>
       </c>
     </row>
     <row r="6">
@@ -666,13 +717,22 @@
         <v>133.7222222222222</v>
       </c>
       <c r="H6" t="n">
-        <v>33.53666666666666</v>
+        <v>133.9166666666667</v>
       </c>
       <c r="I6" t="n">
+        <v>123.4316666666667</v>
+      </c>
+      <c r="J6" t="n">
+        <v>50.63388888888889</v>
+      </c>
+      <c r="K6" t="n">
         <v>128.4011111111111</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>13032.63444444444</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.953749999999999</v>
       </c>
     </row>
     <row r="7">
@@ -704,13 +764,22 @@
         <v>111.3125</v>
       </c>
       <c r="H7" t="n">
-        <v>30.713125</v>
+        <v>111.673125</v>
       </c>
       <c r="I7" t="n">
+        <v>98.44750000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>45.794375</v>
+      </c>
+      <c r="K7" t="n">
         <v>155.031875</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>13145.564375</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.848571428571428</v>
       </c>
     </row>
     <row r="8">
@@ -742,13 +811,22 @@
         <v>134.7142857142857</v>
       </c>
       <c r="H8" t="n">
-        <v>38.19928571428571</v>
+        <v>134.7642857142857</v>
       </c>
       <c r="I8" t="n">
+        <v>124.6085714285714</v>
+      </c>
+      <c r="J8" t="n">
+        <v>56.91714285714286</v>
+      </c>
+      <c r="K8" t="n">
         <v>161.6435714285714</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>16368.36285714286</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.524999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -780,13 +858,22 @@
         <v>278.625</v>
       </c>
       <c r="H9" t="n">
-        <v>66.910625</v>
+        <v>276.8775</v>
       </c>
       <c r="I9" t="n">
+        <v>254.85125</v>
+      </c>
+      <c r="J9" t="n">
+        <v>101.423125</v>
+      </c>
+      <c r="K9" t="n">
         <v>117.86875</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>24165.876875</v>
+      </c>
+      <c r="M9" t="n">
+        <v>9.4725</v>
       </c>
     </row>
     <row r="10">
@@ -818,13 +905,22 @@
         <v>191.3125</v>
       </c>
       <c r="H10" t="n">
-        <v>52.52125</v>
+        <v>191.488125</v>
       </c>
       <c r="I10" t="n">
+        <v>167.93125</v>
+      </c>
+      <c r="J10" t="n">
+        <v>79.390625</v>
+      </c>
+      <c r="K10" t="n">
         <v>154.361875</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>20433.32125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.431249999999999</v>
       </c>
     </row>
     <row r="11">
@@ -856,13 +952,22 @@
         <v>165.9375</v>
       </c>
       <c r="H11" t="n">
-        <v>43.170625</v>
+        <v>158.874375</v>
       </c>
       <c r="I11" t="n">
+        <v>145.815625</v>
+      </c>
+      <c r="J11" t="n">
+        <v>66.510625</v>
+      </c>
+      <c r="K11" t="n">
         <v>125.0475</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>15489.34625</v>
+      </c>
+      <c r="M11" t="n">
+        <v>11.1525</v>
       </c>
     </row>
     <row r="12">
@@ -894,13 +999,22 @@
         <v>249</v>
       </c>
       <c r="H12" t="n">
-        <v>58.83428571428572</v>
+        <v>249.0742857142857</v>
       </c>
       <c r="I12" t="n">
+        <v>212.5921428571428</v>
+      </c>
+      <c r="J12" t="n">
+        <v>92.14357142857143</v>
+      </c>
+      <c r="K12" t="n">
         <v>84.25142857142858</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>18264.09428571429</v>
+      </c>
+      <c r="M12" t="n">
+        <v>8.129999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -932,13 +1046,22 @@
         <v>198.5625</v>
       </c>
       <c r="H13" t="n">
-        <v>52.12125</v>
+        <v>196.621875</v>
       </c>
       <c r="I13" t="n">
+        <v>179.75125</v>
+      </c>
+      <c r="J13" t="n">
+        <v>80.00812500000001</v>
+      </c>
+      <c r="K13" t="n">
         <v>125.6175</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>19100.43375</v>
+      </c>
+      <c r="M13" t="n">
+        <v>9.567500000000001</v>
       </c>
     </row>
     <row r="14">
@@ -970,13 +1093,22 @@
         <v>106.5</v>
       </c>
       <c r="H14" t="n">
-        <v>26.948125</v>
+        <v>105.198125</v>
       </c>
       <c r="I14" t="n">
+        <v>97.839375</v>
+      </c>
+      <c r="J14" t="n">
+        <v>41.486875</v>
+      </c>
+      <c r="K14" t="n">
         <v>121.74625</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>9708.01125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>11.84</v>
       </c>
     </row>
     <row r="15">
@@ -1008,13 +1140,22 @@
         <v>135.9166666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>27.24541666666667</v>
+        <v>136.1133333333333</v>
       </c>
       <c r="I15" t="n">
+        <v>122.7420833333333</v>
+      </c>
+      <c r="J15" t="n">
+        <v>42.82333333333333</v>
+      </c>
+      <c r="K15" t="n">
         <v>63.51666666666667</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>7768.971666666666</v>
+      </c>
+      <c r="M15" t="n">
+        <v>10.225</v>
       </c>
     </row>
     <row r="16">
@@ -1046,13 +1187,22 @@
         <v>149.8</v>
       </c>
       <c r="H16" t="n">
-        <v>28.383</v>
+        <v>150.07</v>
       </c>
       <c r="I16" t="n">
+        <v>138.334</v>
+      </c>
+      <c r="J16" t="n">
+        <v>43.985</v>
+      </c>
+      <c r="K16" t="n">
         <v>46.726</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>7865.425999999999</v>
+      </c>
+      <c r="M16" t="n">
+        <v>11.59666666666667</v>
       </c>
     </row>
     <row r="17">
@@ -1084,13 +1234,22 @@
         <v>79.4375</v>
       </c>
       <c r="H17" t="n">
-        <v>20.95125</v>
+        <v>79.730625</v>
       </c>
       <c r="I17" t="n">
+        <v>68.83125</v>
+      </c>
+      <c r="J17" t="n">
+        <v>31.751875</v>
+      </c>
+      <c r="K17" t="n">
         <v>150.763125</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>8334.363125</v>
+      </c>
+      <c r="M17" t="n">
+        <v>15.55571428571429</v>
       </c>
     </row>
     <row r="18">
@@ -1122,13 +1281,22 @@
         <v>144.4444444444445</v>
       </c>
       <c r="H18" t="n">
-        <v>38.96777777777778</v>
+        <v>144.93</v>
       </c>
       <c r="I18" t="n">
+        <v>129.45</v>
+      </c>
+      <c r="J18" t="n">
+        <v>59.21833333333333</v>
+      </c>
+      <c r="K18" t="n">
         <v>125.4611111111111</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>15320.04833333333</v>
+      </c>
+      <c r="M18" t="n">
+        <v>11.66222222222222</v>
       </c>
     </row>
     <row r="19">
@@ -1160,13 +1328,22 @@
         <v>140.1111111111111</v>
       </c>
       <c r="H19" t="n">
-        <v>34.17555555555555</v>
+        <v>135.4261111111111</v>
       </c>
       <c r="I19" t="n">
+        <v>127.4722222222222</v>
+      </c>
+      <c r="J19" t="n">
+        <v>52.97388888888889</v>
+      </c>
+      <c r="K19" t="n">
         <v>108.1377777777778</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>11662.68888888889</v>
+      </c>
+      <c r="M19" t="n">
+        <v>9.191111111111111</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_TT_MERGED_EXP.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED_EXP.xlsx
@@ -517,34 +517,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11.33333333333333</v>
+        <v>11.73809523809524</v>
       </c>
       <c r="E2" t="n">
-        <v>28.57142857142857</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="F2" t="n">
-        <v>17.23809523809524</v>
+        <v>17.54761904761905</v>
       </c>
       <c r="G2" t="n">
-        <v>65.45238095238095</v>
+        <v>54.58333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>65.84714285714286</v>
+        <v>54.87714285714286</v>
       </c>
       <c r="I2" t="n">
-        <v>59.14857142857142</v>
+        <v>47.76785714285715</v>
       </c>
       <c r="J2" t="n">
-        <v>26.41642857142858</v>
+        <v>21.62464285714286</v>
       </c>
       <c r="K2" t="n">
-        <v>167.8352380952381</v>
+        <v>164.4729761904762</v>
       </c>
       <c r="L2" t="n">
-        <v>7147.117142857142</v>
+        <v>5767.983928571428</v>
       </c>
       <c r="M2" t="n">
-        <v>4.249999999999999</v>
+        <v>6.901538461538461</v>
       </c>
     </row>
     <row r="3">
@@ -564,34 +564,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.714285714285714</v>
+        <v>10.25</v>
       </c>
       <c r="E3" t="n">
-        <v>33.57142857142857</v>
+        <v>32.08333333333334</v>
       </c>
       <c r="F3" t="n">
-        <v>23.85714285714286</v>
+        <v>21.83333333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>90.5</v>
+        <v>85.08333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>88.36357142857142</v>
+        <v>83.90625</v>
       </c>
       <c r="I3" t="n">
-        <v>79.76571428571428</v>
+        <v>75.46833333333333</v>
       </c>
       <c r="J3" t="n">
-        <v>36.84857142857143</v>
+        <v>34.61666666666667</v>
       </c>
       <c r="K3" t="n">
-        <v>186.4028571428571</v>
+        <v>180.8725</v>
       </c>
       <c r="L3" t="n">
-        <v>9895.018571428573</v>
+        <v>9493.8125</v>
       </c>
       <c r="M3" t="n">
-        <v>8.156666666666668</v>
+        <v>7.390000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -611,34 +611,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11.71428571428571</v>
+        <v>11.91666666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>33.71428571428572</v>
+        <v>32.44444444444444</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>20.52777777777778</v>
       </c>
       <c r="G4" t="n">
-        <v>96.78571428571429</v>
+        <v>82.48611111111111</v>
       </c>
       <c r="H4" t="n">
-        <v>96.86857142857141</v>
+        <v>82.88236111111111</v>
       </c>
       <c r="I4" t="n">
-        <v>88.48571428571428</v>
+        <v>75.52347222222222</v>
       </c>
       <c r="J4" t="n">
-        <v>41.85428571428572</v>
+        <v>34.64583333333334</v>
       </c>
       <c r="K4" t="n">
-        <v>197.6928571428571</v>
+        <v>195.2331944444444</v>
       </c>
       <c r="L4" t="n">
-        <v>12880.15142857143</v>
+        <v>10714.10819444444</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9183333333333333</v>
+        <v>9.672727272727274</v>
       </c>
     </row>
     <row r="5">
@@ -658,34 +658,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.66666666666667</v>
+        <v>10.77777777777778</v>
       </c>
       <c r="E5" t="n">
-        <v>30.22222222222222</v>
+        <v>30.69444444444444</v>
       </c>
       <c r="F5" t="n">
-        <v>19.55555555555556</v>
+        <v>19.91666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>68</v>
+        <v>66.29166666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>68.41</v>
+        <v>66.64069444444443</v>
       </c>
       <c r="I5" t="n">
-        <v>60.47555555555555</v>
+        <v>59.22277777777777</v>
       </c>
       <c r="J5" t="n">
-        <v>26.31666666666667</v>
+        <v>25.53361111111111</v>
       </c>
       <c r="K5" t="n">
-        <v>124.8822222222222</v>
+        <v>134.2465277777778</v>
       </c>
       <c r="L5" t="n">
-        <v>6191.664444444445</v>
+        <v>6193.620416666666</v>
       </c>
       <c r="M5" t="n">
-        <v>3.445555555555555</v>
+        <v>4.430833333333333</v>
       </c>
     </row>
     <row r="6">
@@ -705,34 +705,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8.666666666666666</v>
+        <v>9.23076923076923</v>
       </c>
       <c r="E6" t="n">
-        <v>30.66666666666667</v>
+        <v>30.38461538461538</v>
       </c>
       <c r="F6" t="n">
-        <v>22</v>
+        <v>21.15384615384615</v>
       </c>
       <c r="G6" t="n">
-        <v>133.7222222222222</v>
+        <v>125.2564102564102</v>
       </c>
       <c r="H6" t="n">
-        <v>133.9166666666667</v>
+        <v>125.3778205128205</v>
       </c>
       <c r="I6" t="n">
-        <v>123.4316666666667</v>
+        <v>114.5894871794872</v>
       </c>
       <c r="J6" t="n">
-        <v>50.63388888888889</v>
+        <v>49.13551282051282</v>
       </c>
       <c r="K6" t="n">
-        <v>128.4011111111111</v>
+        <v>157.3989743589744</v>
       </c>
       <c r="L6" t="n">
-        <v>13032.63444444444</v>
+        <v>13694.91474358974</v>
       </c>
       <c r="M6" t="n">
-        <v>7.953749999999999</v>
+        <v>7.179166666666667</v>
       </c>
     </row>
     <row r="7">
@@ -752,34 +752,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9.75</v>
+        <v>9.424242424242424</v>
       </c>
       <c r="E7" t="n">
-        <v>29.5</v>
+        <v>30.78787878787879</v>
       </c>
       <c r="F7" t="n">
-        <v>19.75</v>
+        <v>21.36363636363636</v>
       </c>
       <c r="G7" t="n">
-        <v>111.3125</v>
+        <v>105.7272727272727</v>
       </c>
       <c r="H7" t="n">
-        <v>111.673125</v>
+        <v>106.0887878787879</v>
       </c>
       <c r="I7" t="n">
-        <v>98.44750000000001</v>
+        <v>93.29030303030304</v>
       </c>
       <c r="J7" t="n">
-        <v>45.794375</v>
+        <v>43.79621212121212</v>
       </c>
       <c r="K7" t="n">
-        <v>155.031875</v>
+        <v>150.7195454545455</v>
       </c>
       <c r="L7" t="n">
-        <v>13145.564375</v>
+        <v>12155.7796969697</v>
       </c>
       <c r="M7" t="n">
-        <v>4.848571428571428</v>
+        <v>4.671</v>
       </c>
     </row>
     <row r="8">
@@ -799,34 +799,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.71428571428571</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>29.28571428571428</v>
+        <v>28.83333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>17.57142857142857</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>134.7142857142857</v>
+        <v>148.5833333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>134.7642857142857</v>
+        <v>148.8133333333333</v>
       </c>
       <c r="I8" t="n">
-        <v>124.6085714285714</v>
+        <v>136.44875</v>
       </c>
       <c r="J8" t="n">
-        <v>56.91714285714286</v>
+        <v>62.5225</v>
       </c>
       <c r="K8" t="n">
-        <v>161.6435714285714</v>
+        <v>152.17625</v>
       </c>
       <c r="L8" t="n">
-        <v>16368.36285714286</v>
+        <v>17026.2</v>
       </c>
       <c r="M8" t="n">
-        <v>5.524999999999999</v>
+        <v>5.317272727272727</v>
       </c>
     </row>
     <row r="9">
@@ -846,34 +846,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>9.384615384615385</v>
       </c>
       <c r="E9" t="n">
-        <v>33.5</v>
+        <v>30.69230769230769</v>
       </c>
       <c r="F9" t="n">
-        <v>24.5</v>
+        <v>21.30769230769231</v>
       </c>
       <c r="G9" t="n">
-        <v>278.625</v>
+        <v>281.3846153846154</v>
       </c>
       <c r="H9" t="n">
-        <v>276.8775</v>
+        <v>280.2661538461538</v>
       </c>
       <c r="I9" t="n">
-        <v>254.85125</v>
+        <v>262.993076923077</v>
       </c>
       <c r="J9" t="n">
-        <v>101.423125</v>
+        <v>104.8691025641026</v>
       </c>
       <c r="K9" t="n">
-        <v>117.86875</v>
+        <v>124.2261538461538</v>
       </c>
       <c r="L9" t="n">
-        <v>24165.876875</v>
+        <v>26099.07141025641</v>
       </c>
       <c r="M9" t="n">
-        <v>9.4725</v>
+        <v>7.076666666666667</v>
       </c>
     </row>
     <row r="10">
@@ -893,34 +893,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10.25</v>
+        <v>9.897435897435896</v>
       </c>
       <c r="E10" t="n">
-        <v>33.125</v>
+        <v>32.97435897435898</v>
       </c>
       <c r="F10" t="n">
-        <v>22.875</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="G10" t="n">
-        <v>191.3125</v>
+        <v>179.2820512820513</v>
       </c>
       <c r="H10" t="n">
-        <v>191.488125</v>
+        <v>177.8282051282052</v>
       </c>
       <c r="I10" t="n">
-        <v>167.93125</v>
+        <v>159.8358974358974</v>
       </c>
       <c r="J10" t="n">
-        <v>79.390625</v>
+        <v>72.19346153846153</v>
       </c>
       <c r="K10" t="n">
-        <v>154.361875</v>
+        <v>132.5266666666667</v>
       </c>
       <c r="L10" t="n">
-        <v>20433.32125</v>
+        <v>17788.48474358974</v>
       </c>
       <c r="M10" t="n">
-        <v>3.431249999999999</v>
+        <v>5.834166666666667</v>
       </c>
     </row>
     <row r="11">
@@ -940,34 +940,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10.125</v>
+        <v>10.4</v>
       </c>
       <c r="E11" t="n">
-        <v>32.5</v>
+        <v>35.42222222222222</v>
       </c>
       <c r="F11" t="n">
-        <v>22.375</v>
+        <v>25.02222222222222</v>
       </c>
       <c r="G11" t="n">
-        <v>165.9375</v>
+        <v>147.9555555555556</v>
       </c>
       <c r="H11" t="n">
-        <v>158.874375</v>
+        <v>144.2731111111111</v>
       </c>
       <c r="I11" t="n">
-        <v>145.815625</v>
+        <v>134.2875555555555</v>
       </c>
       <c r="J11" t="n">
-        <v>66.510625</v>
+        <v>58.78</v>
       </c>
       <c r="K11" t="n">
-        <v>125.0475</v>
+        <v>118.0341111111111</v>
       </c>
       <c r="L11" t="n">
-        <v>15489.34625</v>
+        <v>13113.81522222222</v>
       </c>
       <c r="M11" t="n">
-        <v>11.1525</v>
+        <v>10.97714285714286</v>
       </c>
     </row>
     <row r="12">
@@ -987,34 +987,34 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>10.15384615384615</v>
       </c>
       <c r="E12" t="n">
-        <v>33</v>
+        <v>35.15384615384615</v>
       </c>
       <c r="F12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>249</v>
+        <v>238.0769230769231</v>
       </c>
       <c r="H12" t="n">
-        <v>249.0742857142857</v>
+        <v>236.3234615384615</v>
       </c>
       <c r="I12" t="n">
-        <v>212.5921428571428</v>
+        <v>210.0496153846154</v>
       </c>
       <c r="J12" t="n">
-        <v>92.14357142857143</v>
+        <v>91.4226923076923</v>
       </c>
       <c r="K12" t="n">
-        <v>84.25142857142858</v>
+        <v>84.40653846153845</v>
       </c>
       <c r="L12" t="n">
-        <v>18264.09428571429</v>
+        <v>18416.46846153846</v>
       </c>
       <c r="M12" t="n">
-        <v>8.129999999999999</v>
+        <v>10.84666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -1037,31 +1037,31 @@
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>32.125</v>
+        <v>30.60606060606061</v>
       </c>
       <c r="F13" t="n">
-        <v>22.125</v>
+        <v>20.60606060606061</v>
       </c>
       <c r="G13" t="n">
-        <v>198.5625</v>
+        <v>187.8333333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>196.621875</v>
+        <v>186.4166666666667</v>
       </c>
       <c r="I13" t="n">
-        <v>179.75125</v>
+        <v>169.575</v>
       </c>
       <c r="J13" t="n">
-        <v>80.00812500000001</v>
+        <v>74.68181818181819</v>
       </c>
       <c r="K13" t="n">
-        <v>125.6175</v>
+        <v>123.0454545454545</v>
       </c>
       <c r="L13" t="n">
-        <v>19100.43375</v>
+        <v>18152.20424242424</v>
       </c>
       <c r="M13" t="n">
-        <v>9.567500000000001</v>
+        <v>10.24272727272727</v>
       </c>
     </row>
     <row r="14">
@@ -1081,34 +1081,34 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9.5</v>
+        <v>9.714285714285714</v>
       </c>
       <c r="E14" t="n">
-        <v>32.375</v>
+        <v>32.5</v>
       </c>
       <c r="F14" t="n">
-        <v>22.875</v>
+        <v>22.78571428571428</v>
       </c>
       <c r="G14" t="n">
-        <v>106.5</v>
+        <v>120.7857142857143</v>
       </c>
       <c r="H14" t="n">
-        <v>105.198125</v>
+        <v>120.1285714285714</v>
       </c>
       <c r="I14" t="n">
-        <v>97.839375</v>
+        <v>112.7028571428572</v>
       </c>
       <c r="J14" t="n">
-        <v>41.486875</v>
+        <v>47.52</v>
       </c>
       <c r="K14" t="n">
-        <v>121.74625</v>
+        <v>117.3753571428571</v>
       </c>
       <c r="L14" t="n">
-        <v>9708.01125</v>
+        <v>10696.64535714286</v>
       </c>
       <c r="M14" t="n">
-        <v>11.84</v>
+        <v>9.530769230769231</v>
       </c>
     </row>
     <row r="15">
@@ -1128,34 +1128,34 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11.75</v>
+        <v>11.69230769230769</v>
       </c>
       <c r="E15" t="n">
-        <v>23.5</v>
+        <v>24.76923076923077</v>
       </c>
       <c r="F15" t="n">
-        <v>11.75</v>
+        <v>13.07692307692308</v>
       </c>
       <c r="G15" t="n">
-        <v>135.9166666666667</v>
+        <v>134.5769230769231</v>
       </c>
       <c r="H15" t="n">
-        <v>136.1133333333333</v>
+        <v>134.7835897435897</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7420833333333</v>
+        <v>123.9888461538462</v>
       </c>
       <c r="J15" t="n">
-        <v>42.82333333333333</v>
+        <v>43.70564102564102</v>
       </c>
       <c r="K15" t="n">
-        <v>63.51666666666667</v>
+        <v>72.51987179487179</v>
       </c>
       <c r="L15" t="n">
-        <v>7768.971666666666</v>
+        <v>8371.765769230769</v>
       </c>
       <c r="M15" t="n">
-        <v>10.225</v>
+        <v>9.729166666666666</v>
       </c>
     </row>
     <row r="16">
@@ -1178,31 +1178,31 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>29.4</v>
+        <v>29.58974358974359</v>
       </c>
       <c r="F16" t="n">
-        <v>19.4</v>
+        <v>19.58974358974359</v>
       </c>
       <c r="G16" t="n">
-        <v>149.8</v>
+        <v>161.7179487179487</v>
       </c>
       <c r="H16" t="n">
-        <v>150.07</v>
+        <v>161.8978205128205</v>
       </c>
       <c r="I16" t="n">
-        <v>138.334</v>
+        <v>151.2319230769231</v>
       </c>
       <c r="J16" t="n">
-        <v>43.985</v>
+        <v>48.98538461538461</v>
       </c>
       <c r="K16" t="n">
-        <v>46.726</v>
+        <v>47.93346153846154</v>
       </c>
       <c r="L16" t="n">
-        <v>7865.425999999999</v>
+        <v>8798.280897435898</v>
       </c>
       <c r="M16" t="n">
-        <v>11.59666666666667</v>
+        <v>10.4975</v>
       </c>
     </row>
     <row r="17">
@@ -1222,34 +1222,34 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10.5</v>
+        <v>11.08333333333333</v>
       </c>
       <c r="E17" t="n">
-        <v>29</v>
+        <v>29.44444444444444</v>
       </c>
       <c r="F17" t="n">
-        <v>18.5</v>
+        <v>18.36111111111111</v>
       </c>
       <c r="G17" t="n">
-        <v>79.4375</v>
+        <v>79.59722222222221</v>
       </c>
       <c r="H17" t="n">
-        <v>79.730625</v>
+        <v>79.90236111111112</v>
       </c>
       <c r="I17" t="n">
-        <v>68.83125</v>
+        <v>69.68791666666667</v>
       </c>
       <c r="J17" t="n">
-        <v>31.751875</v>
+        <v>32.10013888888889</v>
       </c>
       <c r="K17" t="n">
-        <v>150.763125</v>
+        <v>162.7741666666667</v>
       </c>
       <c r="L17" t="n">
-        <v>8334.363125</v>
+        <v>8550.360277777778</v>
       </c>
       <c r="M17" t="n">
-        <v>15.55571428571429</v>
+        <v>14.13545454545455</v>
       </c>
     </row>
     <row r="18">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>9.692307692307692</v>
       </c>
       <c r="E18" t="n">
-        <v>29.66666666666667</v>
+        <v>29.92307692307692</v>
       </c>
       <c r="F18" t="n">
-        <v>19.66666666666667</v>
+        <v>20.23076923076923</v>
       </c>
       <c r="G18" t="n">
-        <v>144.4444444444445</v>
+        <v>143.2692307692308</v>
       </c>
       <c r="H18" t="n">
-        <v>144.93</v>
+        <v>143.5703846153846</v>
       </c>
       <c r="I18" t="n">
-        <v>129.45</v>
+        <v>129.1269230769231</v>
       </c>
       <c r="J18" t="n">
-        <v>59.21833333333333</v>
+        <v>61.02115384615384</v>
       </c>
       <c r="K18" t="n">
-        <v>125.4611111111111</v>
+        <v>140.7738461538461</v>
       </c>
       <c r="L18" t="n">
-        <v>15320.04833333333</v>
+        <v>16379.94269230769</v>
       </c>
       <c r="M18" t="n">
-        <v>11.66222222222222</v>
+        <v>11.82583333333333</v>
       </c>
     </row>
     <row r="19">
@@ -1316,34 +1316,34 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>9.714285714285714</v>
       </c>
       <c r="E19" t="n">
-        <v>32.22222222222222</v>
+        <v>31.5</v>
       </c>
       <c r="F19" t="n">
-        <v>22.22222222222222</v>
+        <v>21.78571428571428</v>
       </c>
       <c r="G19" t="n">
-        <v>140.1111111111111</v>
+        <v>134.1964285714286</v>
       </c>
       <c r="H19" t="n">
-        <v>135.4261111111111</v>
+        <v>131.2376785714286</v>
       </c>
       <c r="I19" t="n">
-        <v>127.4722222222222</v>
+        <v>120.13625</v>
       </c>
       <c r="J19" t="n">
-        <v>52.97388888888889</v>
+        <v>50.45553571428571</v>
       </c>
       <c r="K19" t="n">
-        <v>108.1377777777778</v>
+        <v>108.7514285714286</v>
       </c>
       <c r="L19" t="n">
-        <v>11662.68888888889</v>
+        <v>11181.03946428571</v>
       </c>
       <c r="M19" t="n">
-        <v>9.191111111111111</v>
+        <v>12.10428571428571</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_TT_MERGED_EXP.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED_EXP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,6 @@
           <t>AUC</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -543,9 +538,6 @@
       <c r="L2" t="n">
         <v>5767.983928571428</v>
       </c>
-      <c r="M2" t="n">
-        <v>6.901538461538461</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -590,9 +582,6 @@
       <c r="L3" t="n">
         <v>9493.8125</v>
       </c>
-      <c r="M3" t="n">
-        <v>7.390000000000001</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -637,9 +626,6 @@
       <c r="L4" t="n">
         <v>10714.10819444444</v>
       </c>
-      <c r="M4" t="n">
-        <v>9.672727272727274</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -684,9 +670,6 @@
       <c r="L5" t="n">
         <v>6193.620416666666</v>
       </c>
-      <c r="M5" t="n">
-        <v>4.430833333333333</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -731,9 +714,6 @@
       <c r="L6" t="n">
         <v>13694.91474358974</v>
       </c>
-      <c r="M6" t="n">
-        <v>7.179166666666667</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -778,9 +758,6 @@
       <c r="L7" t="n">
         <v>12155.7796969697</v>
       </c>
-      <c r="M7" t="n">
-        <v>4.671</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -825,9 +802,6 @@
       <c r="L8" t="n">
         <v>17026.2</v>
       </c>
-      <c r="M8" t="n">
-        <v>5.317272727272727</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -872,9 +846,6 @@
       <c r="L9" t="n">
         <v>26099.07141025641</v>
       </c>
-      <c r="M9" t="n">
-        <v>7.076666666666667</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -919,9 +890,6 @@
       <c r="L10" t="n">
         <v>17788.48474358974</v>
       </c>
-      <c r="M10" t="n">
-        <v>5.834166666666667</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -966,9 +934,6 @@
       <c r="L11" t="n">
         <v>13113.81522222222</v>
       </c>
-      <c r="M11" t="n">
-        <v>10.97714285714286</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1013,9 +978,6 @@
       <c r="L12" t="n">
         <v>18416.46846153846</v>
       </c>
-      <c r="M12" t="n">
-        <v>10.84666666666667</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1060,9 +1022,6 @@
       <c r="L13" t="n">
         <v>18152.20424242424</v>
       </c>
-      <c r="M13" t="n">
-        <v>10.24272727272727</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1107,9 +1066,6 @@
       <c r="L14" t="n">
         <v>10696.64535714286</v>
       </c>
-      <c r="M14" t="n">
-        <v>9.530769230769231</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1154,9 +1110,6 @@
       <c r="L15" t="n">
         <v>8371.765769230769</v>
       </c>
-      <c r="M15" t="n">
-        <v>9.729166666666666</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1201,9 +1154,6 @@
       <c r="L16" t="n">
         <v>8798.280897435898</v>
       </c>
-      <c r="M16" t="n">
-        <v>10.4975</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1248,9 +1198,6 @@
       <c r="L17" t="n">
         <v>8550.360277777778</v>
       </c>
-      <c r="M17" t="n">
-        <v>14.13545454545455</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1295,9 +1242,6 @@
       <c r="L18" t="n">
         <v>16379.94269230769</v>
       </c>
-      <c r="M18" t="n">
-        <v>11.82583333333333</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1341,9 +1285,6 @@
       </c>
       <c r="L19" t="n">
         <v>11181.03946428571</v>
-      </c>
-      <c r="M19" t="n">
-        <v>12.10428571428571</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_TT_MERGED_EXP.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED_EXP.xlsx
@@ -512,31 +512,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11.73809523809524</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>29.28571428571428</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="F2" t="n">
-        <v>17.54761904761905</v>
+        <v>17.23809523809524</v>
       </c>
       <c r="G2" t="n">
-        <v>54.58333333333333</v>
+        <v>65.45238095238095</v>
       </c>
       <c r="H2" t="n">
-        <v>54.87714285714286</v>
+        <v>65.84714285714286</v>
       </c>
       <c r="I2" t="n">
-        <v>47.76785714285715</v>
+        <v>59.14857142857142</v>
       </c>
       <c r="J2" t="n">
-        <v>21.62464285714286</v>
+        <v>26.41642857142858</v>
       </c>
       <c r="K2" t="n">
-        <v>164.4729761904762</v>
+        <v>167.8352380952381</v>
       </c>
       <c r="L2" t="n">
-        <v>5767.983928571428</v>
+        <v>7147.117142857142</v>
       </c>
     </row>
     <row r="3">
@@ -556,31 +556,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10.25</v>
+        <v>9.714285714285714</v>
       </c>
       <c r="E3" t="n">
-        <v>32.08333333333334</v>
+        <v>33.57142857142857</v>
       </c>
       <c r="F3" t="n">
-        <v>21.83333333333333</v>
+        <v>23.85714285714286</v>
       </c>
       <c r="G3" t="n">
-        <v>85.08333333333333</v>
+        <v>90.5</v>
       </c>
       <c r="H3" t="n">
-        <v>83.90625</v>
+        <v>88.36357142857142</v>
       </c>
       <c r="I3" t="n">
-        <v>75.46833333333333</v>
+        <v>79.76571428571428</v>
       </c>
       <c r="J3" t="n">
-        <v>34.61666666666667</v>
+        <v>36.84857142857143</v>
       </c>
       <c r="K3" t="n">
-        <v>180.8725</v>
+        <v>186.4028571428571</v>
       </c>
       <c r="L3" t="n">
-        <v>9493.8125</v>
+        <v>9895.018571428573</v>
       </c>
     </row>
     <row r="4">
@@ -600,31 +600,31 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11.91666666666667</v>
+        <v>11.71428571428571</v>
       </c>
       <c r="E4" t="n">
-        <v>32.44444444444444</v>
+        <v>33.71428571428572</v>
       </c>
       <c r="F4" t="n">
-        <v>20.52777777777778</v>
+        <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>82.48611111111111</v>
+        <v>96.78571428571429</v>
       </c>
       <c r="H4" t="n">
-        <v>82.88236111111111</v>
+        <v>96.86857142857141</v>
       </c>
       <c r="I4" t="n">
-        <v>75.52347222222222</v>
+        <v>88.48571428571428</v>
       </c>
       <c r="J4" t="n">
-        <v>34.64583333333334</v>
+        <v>41.85428571428572</v>
       </c>
       <c r="K4" t="n">
-        <v>195.2331944444444</v>
+        <v>197.6928571428571</v>
       </c>
       <c r="L4" t="n">
-        <v>10714.10819444444</v>
+        <v>12880.15142857143</v>
       </c>
     </row>
     <row r="5">
@@ -644,31 +644,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.77777777777778</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>30.69444444444444</v>
+        <v>30.22222222222222</v>
       </c>
       <c r="F5" t="n">
-        <v>19.91666666666667</v>
+        <v>19.55555555555556</v>
       </c>
       <c r="G5" t="n">
-        <v>66.29166666666667</v>
+        <v>68</v>
       </c>
       <c r="H5" t="n">
-        <v>66.64069444444443</v>
+        <v>68.41</v>
       </c>
       <c r="I5" t="n">
-        <v>59.22277777777777</v>
+        <v>60.47555555555555</v>
       </c>
       <c r="J5" t="n">
-        <v>25.53361111111111</v>
+        <v>26.31666666666667</v>
       </c>
       <c r="K5" t="n">
-        <v>134.2465277777778</v>
+        <v>124.8822222222222</v>
       </c>
       <c r="L5" t="n">
-        <v>6193.620416666666</v>
+        <v>6191.664444444445</v>
       </c>
     </row>
     <row r="6">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9.23076923076923</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>30.38461538461538</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="F6" t="n">
-        <v>21.15384615384615</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
-        <v>125.2564102564102</v>
+        <v>133.7222222222222</v>
       </c>
       <c r="H6" t="n">
-        <v>125.3778205128205</v>
+        <v>133.9166666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>114.5894871794872</v>
+        <v>123.4316666666667</v>
       </c>
       <c r="J6" t="n">
-        <v>49.13551282051282</v>
+        <v>50.63388888888889</v>
       </c>
       <c r="K6" t="n">
-        <v>157.3989743589744</v>
+        <v>128.4011111111111</v>
       </c>
       <c r="L6" t="n">
-        <v>13694.91474358974</v>
+        <v>13032.63444444444</v>
       </c>
     </row>
     <row r="7">
@@ -732,31 +732,31 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9.424242424242424</v>
+        <v>9.75</v>
       </c>
       <c r="E7" t="n">
-        <v>30.78787878787879</v>
+        <v>29.5</v>
       </c>
       <c r="F7" t="n">
-        <v>21.36363636363636</v>
+        <v>19.75</v>
       </c>
       <c r="G7" t="n">
-        <v>105.7272727272727</v>
+        <v>111.3125</v>
       </c>
       <c r="H7" t="n">
-        <v>106.0887878787879</v>
+        <v>111.673125</v>
       </c>
       <c r="I7" t="n">
-        <v>93.29030303030304</v>
+        <v>98.44750000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>43.79621212121212</v>
+        <v>45.794375</v>
       </c>
       <c r="K7" t="n">
-        <v>150.7195454545455</v>
+        <v>155.031875</v>
       </c>
       <c r="L7" t="n">
-        <v>12155.7796969697</v>
+        <v>13145.564375</v>
       </c>
     </row>
     <row r="8">
@@ -776,31 +776,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.16666666666667</v>
+        <v>11.71428571428571</v>
       </c>
       <c r="E8" t="n">
-        <v>28.83333333333333</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="F8" t="n">
-        <v>17.66666666666667</v>
+        <v>17.57142857142857</v>
       </c>
       <c r="G8" t="n">
-        <v>148.5833333333333</v>
+        <v>134.7142857142857</v>
       </c>
       <c r="H8" t="n">
-        <v>148.8133333333333</v>
+        <v>134.7642857142857</v>
       </c>
       <c r="I8" t="n">
-        <v>136.44875</v>
+        <v>124.6085714285714</v>
       </c>
       <c r="J8" t="n">
-        <v>62.5225</v>
+        <v>56.91714285714286</v>
       </c>
       <c r="K8" t="n">
-        <v>152.17625</v>
+        <v>161.6435714285714</v>
       </c>
       <c r="L8" t="n">
-        <v>17026.2</v>
+        <v>16368.36285714286</v>
       </c>
     </row>
     <row r="9">
@@ -820,31 +820,31 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9.384615384615385</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>30.69230769230769</v>
+        <v>33.5</v>
       </c>
       <c r="F9" t="n">
-        <v>21.30769230769231</v>
+        <v>24.5</v>
       </c>
       <c r="G9" t="n">
-        <v>281.3846153846154</v>
+        <v>278.625</v>
       </c>
       <c r="H9" t="n">
-        <v>280.2661538461538</v>
+        <v>276.8775</v>
       </c>
       <c r="I9" t="n">
-        <v>262.993076923077</v>
+        <v>254.85125</v>
       </c>
       <c r="J9" t="n">
-        <v>104.8691025641026</v>
+        <v>101.423125</v>
       </c>
       <c r="K9" t="n">
-        <v>124.2261538461538</v>
+        <v>117.86875</v>
       </c>
       <c r="L9" t="n">
-        <v>26099.07141025641</v>
+        <v>24165.876875</v>
       </c>
     </row>
     <row r="10">
@@ -864,31 +864,31 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9.897435897435896</v>
+        <v>10.25</v>
       </c>
       <c r="E10" t="n">
-        <v>32.97435897435898</v>
+        <v>33.125</v>
       </c>
       <c r="F10" t="n">
-        <v>23.07692307692308</v>
+        <v>22.875</v>
       </c>
       <c r="G10" t="n">
-        <v>179.2820512820513</v>
+        <v>191.3125</v>
       </c>
       <c r="H10" t="n">
-        <v>177.8282051282052</v>
+        <v>191.488125</v>
       </c>
       <c r="I10" t="n">
-        <v>159.8358974358974</v>
+        <v>167.93125</v>
       </c>
       <c r="J10" t="n">
-        <v>72.19346153846153</v>
+        <v>79.390625</v>
       </c>
       <c r="K10" t="n">
-        <v>132.5266666666667</v>
+        <v>154.361875</v>
       </c>
       <c r="L10" t="n">
-        <v>17788.48474358974</v>
+        <v>20433.32125</v>
       </c>
     </row>
     <row r="11">
@@ -908,31 +908,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10.4</v>
+        <v>10.125</v>
       </c>
       <c r="E11" t="n">
-        <v>35.42222222222222</v>
+        <v>32.5</v>
       </c>
       <c r="F11" t="n">
-        <v>25.02222222222222</v>
+        <v>22.375</v>
       </c>
       <c r="G11" t="n">
-        <v>147.9555555555556</v>
+        <v>165.9375</v>
       </c>
       <c r="H11" t="n">
-        <v>144.2731111111111</v>
+        <v>158.874375</v>
       </c>
       <c r="I11" t="n">
-        <v>134.2875555555555</v>
+        <v>145.815625</v>
       </c>
       <c r="J11" t="n">
-        <v>58.78</v>
+        <v>66.510625</v>
       </c>
       <c r="K11" t="n">
-        <v>118.0341111111111</v>
+        <v>125.0475</v>
       </c>
       <c r="L11" t="n">
-        <v>13113.81522222222</v>
+        <v>15489.34625</v>
       </c>
     </row>
     <row r="12">
@@ -952,31 +952,31 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10.15384615384615</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>35.15384615384615</v>
+        <v>33</v>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>238.0769230769231</v>
+        <v>249</v>
       </c>
       <c r="H12" t="n">
-        <v>236.3234615384615</v>
+        <v>249.0742857142857</v>
       </c>
       <c r="I12" t="n">
-        <v>210.0496153846154</v>
+        <v>212.5921428571428</v>
       </c>
       <c r="J12" t="n">
-        <v>91.4226923076923</v>
+        <v>92.14357142857143</v>
       </c>
       <c r="K12" t="n">
-        <v>84.40653846153845</v>
+        <v>84.25142857142858</v>
       </c>
       <c r="L12" t="n">
-        <v>18416.46846153846</v>
+        <v>18264.09428571429</v>
       </c>
     </row>
     <row r="13">
@@ -999,28 +999,28 @@
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>30.60606060606061</v>
+        <v>32.125</v>
       </c>
       <c r="F13" t="n">
-        <v>20.60606060606061</v>
+        <v>22.125</v>
       </c>
       <c r="G13" t="n">
-        <v>187.8333333333333</v>
+        <v>198.5625</v>
       </c>
       <c r="H13" t="n">
-        <v>186.4166666666667</v>
+        <v>196.621875</v>
       </c>
       <c r="I13" t="n">
-        <v>169.575</v>
+        <v>179.75125</v>
       </c>
       <c r="J13" t="n">
-        <v>74.68181818181819</v>
+        <v>80.00812500000001</v>
       </c>
       <c r="K13" t="n">
-        <v>123.0454545454545</v>
+        <v>125.6175</v>
       </c>
       <c r="L13" t="n">
-        <v>18152.20424242424</v>
+        <v>19100.43375</v>
       </c>
     </row>
     <row r="14">
@@ -1040,31 +1040,31 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9.714285714285714</v>
+        <v>9.5</v>
       </c>
       <c r="E14" t="n">
-        <v>32.5</v>
+        <v>32.375</v>
       </c>
       <c r="F14" t="n">
-        <v>22.78571428571428</v>
+        <v>22.875</v>
       </c>
       <c r="G14" t="n">
-        <v>120.7857142857143</v>
+        <v>106.5</v>
       </c>
       <c r="H14" t="n">
-        <v>120.1285714285714</v>
+        <v>105.198125</v>
       </c>
       <c r="I14" t="n">
-        <v>112.7028571428572</v>
+        <v>97.839375</v>
       </c>
       <c r="J14" t="n">
-        <v>47.52</v>
+        <v>41.486875</v>
       </c>
       <c r="K14" t="n">
-        <v>117.3753571428571</v>
+        <v>121.74625</v>
       </c>
       <c r="L14" t="n">
-        <v>10696.64535714286</v>
+        <v>9708.01125</v>
       </c>
     </row>
     <row r="15">
@@ -1084,31 +1084,31 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11.69230769230769</v>
+        <v>11.75</v>
       </c>
       <c r="E15" t="n">
-        <v>24.76923076923077</v>
+        <v>23.5</v>
       </c>
       <c r="F15" t="n">
-        <v>13.07692307692308</v>
+        <v>11.75</v>
       </c>
       <c r="G15" t="n">
-        <v>134.5769230769231</v>
+        <v>135.9166666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>134.7835897435897</v>
+        <v>136.1133333333333</v>
       </c>
       <c r="I15" t="n">
-        <v>123.9888461538462</v>
+        <v>122.7420833333333</v>
       </c>
       <c r="J15" t="n">
-        <v>43.70564102564102</v>
+        <v>42.82333333333333</v>
       </c>
       <c r="K15" t="n">
-        <v>72.51987179487179</v>
+        <v>63.51666666666667</v>
       </c>
       <c r="L15" t="n">
-        <v>8371.765769230769</v>
+        <v>7768.971666666666</v>
       </c>
     </row>
     <row r="16">
@@ -1131,28 +1131,28 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>29.58974358974359</v>
+        <v>29.4</v>
       </c>
       <c r="F16" t="n">
-        <v>19.58974358974359</v>
+        <v>19.4</v>
       </c>
       <c r="G16" t="n">
-        <v>161.7179487179487</v>
+        <v>149.8</v>
       </c>
       <c r="H16" t="n">
-        <v>161.8978205128205</v>
+        <v>150.07</v>
       </c>
       <c r="I16" t="n">
-        <v>151.2319230769231</v>
+        <v>138.334</v>
       </c>
       <c r="J16" t="n">
-        <v>48.98538461538461</v>
+        <v>43.985</v>
       </c>
       <c r="K16" t="n">
-        <v>47.93346153846154</v>
+        <v>46.726</v>
       </c>
       <c r="L16" t="n">
-        <v>8798.280897435898</v>
+        <v>7865.425999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1172,31 +1172,31 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11.08333333333333</v>
+        <v>10.5</v>
       </c>
       <c r="E17" t="n">
-        <v>29.44444444444444</v>
+        <v>29</v>
       </c>
       <c r="F17" t="n">
-        <v>18.36111111111111</v>
+        <v>18.5</v>
       </c>
       <c r="G17" t="n">
-        <v>79.59722222222221</v>
+        <v>79.4375</v>
       </c>
       <c r="H17" t="n">
-        <v>79.90236111111112</v>
+        <v>79.730625</v>
       </c>
       <c r="I17" t="n">
-        <v>69.68791666666667</v>
+        <v>68.83125</v>
       </c>
       <c r="J17" t="n">
-        <v>32.10013888888889</v>
+        <v>31.751875</v>
       </c>
       <c r="K17" t="n">
-        <v>162.7741666666667</v>
+        <v>150.763125</v>
       </c>
       <c r="L17" t="n">
-        <v>8550.360277777778</v>
+        <v>8334.363125</v>
       </c>
     </row>
     <row r="18">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9.692307692307692</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>29.92307692307692</v>
+        <v>29.66666666666667</v>
       </c>
       <c r="F18" t="n">
-        <v>20.23076923076923</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="G18" t="n">
-        <v>143.2692307692308</v>
+        <v>144.4444444444445</v>
       </c>
       <c r="H18" t="n">
-        <v>143.5703846153846</v>
+        <v>144.93</v>
       </c>
       <c r="I18" t="n">
-        <v>129.1269230769231</v>
+        <v>129.45</v>
       </c>
       <c r="J18" t="n">
-        <v>61.02115384615384</v>
+        <v>59.21833333333333</v>
       </c>
       <c r="K18" t="n">
-        <v>140.7738461538461</v>
+        <v>125.4611111111111</v>
       </c>
       <c r="L18" t="n">
-        <v>16379.94269230769</v>
+        <v>15320.04833333333</v>
       </c>
     </row>
     <row r="19">
@@ -1260,31 +1260,31 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9.714285714285714</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>31.5</v>
+        <v>32.22222222222222</v>
       </c>
       <c r="F19" t="n">
-        <v>21.78571428571428</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="G19" t="n">
-        <v>134.1964285714286</v>
+        <v>140.1111111111111</v>
       </c>
       <c r="H19" t="n">
-        <v>131.2376785714286</v>
+        <v>135.4261111111111</v>
       </c>
       <c r="I19" t="n">
-        <v>120.13625</v>
+        <v>127.4722222222222</v>
       </c>
       <c r="J19" t="n">
-        <v>50.45553571428571</v>
+        <v>52.97388888888889</v>
       </c>
       <c r="K19" t="n">
-        <v>108.7514285714286</v>
+        <v>108.1377777777778</v>
       </c>
       <c r="L19" t="n">
-        <v>11181.03946428571</v>
+        <v>11662.68888888889</v>
       </c>
     </row>
   </sheetData>
